--- a/project-management.xlsx
+++ b/project-management.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -44,22 +44,28 @@
     <t>Configure automated CI using GitHub Actions</t>
   </si>
   <si>
-    <t>Backend redy for QA</t>
+    <t>Configure on premise agent for Azure DevOps</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Configure CD using Azure DevOps</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Prepare Demo</t>
+  </si>
+  <si>
+    <t>Submit project for Udacity's review</t>
   </si>
   <si>
     <t>Goals</t>
   </si>
   <si>
-    <t>ML API</t>
-  </si>
-  <si>
-    <t>Deploy FR on Azure</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>Angular</t>
+    <t>Complete fully automated CI / CD</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -447,7 +453,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>44236</v>
+        <v>44441</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -481,8 +487,12 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -507,12 +517,16 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>44870</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>44445</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -537,12 +551,14 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>44877</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -567,12 +583,16 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>44884</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+        <v>44448</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -597,12 +617,14 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>44891</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -627,42 +649,9 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>44898</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>44905</v>
-      </c>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -689,10 +678,8 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>44912</v>
-      </c>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -719,14 +706,12 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -751,14 +736,12 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -783,14 +766,12 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>

--- a/project-management.xlsx
+++ b/project-management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="594" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>Complete fully automated CI / CD</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>1st quarter</t>
+  </si>
+  <si>
+    <t>2nd quarter</t>
+  </si>
+  <si>
+    <t>3rd quarter</t>
+  </si>
+  <si>
+    <t>4th quarter</t>
+  </si>
+  <si>
+    <t>Gather data from the market, get data from all stakeholders</t>
+  </si>
+  <si>
+    <t>Build the ML backend using Flask</t>
+  </si>
+  <si>
+    <t>Build the FE using Vue.js</t>
+  </si>
+  <si>
+    <t>Deliver to production San Francisto's house predictions using fully automated CI / CD</t>
   </si>
 </sst>
 </file>
@@ -305,18 +332,20 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,6 +825,40 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
